--- a/rps_df.xlsx
+++ b/rps_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>Mes</t>
   </si>
@@ -31,19 +31,13 @@
     <t>Rechazado</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
   </si>
   <si>
     <t>[00005198] SAN MARTIN DE PORRES</t>
@@ -64,6 +58,9 @@
     <t>[00005203] LOS GRANADOS "SAGRADO CORAZON"</t>
   </si>
   <si>
+    <t>[00005204] HOSPITAL DE ESPECIALIDADES BASICAS LA NORIA</t>
+  </si>
+  <si>
     <t>[00005205] PESQUEDA II</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>[00005208] CLUB DE LEONES</t>
-  </si>
-  <si>
-    <t>[00005204] HOSPITAL DE ESPECIALIDADES BASICAS LA NORIA</t>
   </si>
 </sst>
 </file>
@@ -434,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -479,16 +473,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,13 +490,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -513,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -530,16 +524,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -547,13 +541,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -564,16 +558,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -581,16 +575,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -598,16 +592,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -615,30 +609,30 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -649,13 +643,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -666,13 +660,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -683,13 +677,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -700,13 +694,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -717,13 +711,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -734,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -751,10 +745,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -768,13 +762,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -785,13 +779,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -799,16 +793,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -816,19 +810,19 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -836,13 +830,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -853,10 +847,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -870,13 +864,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -887,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -904,13 +898,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -921,13 +915,13 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -938,13 +932,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -955,13 +949,13 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -972,13 +966,13 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -986,375 +980,18 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>13</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>44</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>17</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>29</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>27</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>11</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47">
-        <v>13</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
-        <v>48</v>
-      </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49">
-        <v>21</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50">
-        <v>19</v>
-      </c>
-      <c r="D50">
-        <v>18</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54">
-        <v>23</v>
-      </c>
-      <c r="D54">
-        <v>26</v>
-      </c>
-      <c r="E54">
         <v>0</v>
       </c>
     </row>

--- a/rps_df.xlsx
+++ b/rps_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Mes</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
   </si>
   <si>
     <t>[00005198] SAN MARTIN DE PORRES</t>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -473,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -490,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -507,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -524,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>56</v>
@@ -541,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -558,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -575,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -592,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -609,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -626,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -643,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -660,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -677,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -694,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>19</v>
@@ -711,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>49</v>
@@ -728,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>28</v>
@@ -745,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -762,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -779,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -796,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -813,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>29</v>
@@ -822,176 +819,6 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
         <v>0</v>
       </c>
     </row>
